--- a/biology/Botanique/Sainte-croix_(cépage)/Sainte-croix_(cépage).xlsx
+++ b/biology/Botanique/Sainte-croix_(cépage)/Sainte-croix_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sainte-croix_(c%C3%A9page)</t>
+          <t>Sainte-croix_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sainte-croix N[n. 1] est un cépage noir de cuve. Créé par l'hybrideur Elmer Swenson dans l'État du Wisconsin aux États-Unis, il est issu du croisement entre le ES 193 et le ES 283[1],[2] (connu pour sa résistance au froid, les vignes pouvant tolérer des températures descendant jusqu'à -38 degrés Celsius[3]).
-Le sainte-croix est aussi connu sous les noms de « St. Croix »[1] (en anglais), « Elmer Swenson 242 »[1] (du nom de son auteur), ou « ES 242 »[1] (nom abrégé).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sainte-croix N[n. 1] est un cépage noir de cuve. Créé par l'hybrideur Elmer Swenson dans l'État du Wisconsin aux États-Unis, il est issu du croisement entre le ES 193 et le ES 283, (connu pour sa résistance au froid, les vignes pouvant tolérer des températures descendant jusqu'à -38 degrés Celsius).
+Le sainte-croix est aussi connu sous les noms de « St. Croix » (en anglais), « Elmer Swenson 242 » (du nom de son auteur), ou « ES 242 » (nom abrégé).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sainte-croix_(c%C3%A9page)</t>
+          <t>Sainte-croix_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Types de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage permet la création de vins rouges fruités, de vins rosés et de vins fortifiés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage permet la création de vins rouges fruités, de vins rosés et de vins fortifiés.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sainte-croix_(c%C3%A9page)</t>
+          <t>Sainte-croix_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Régions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un des cépages les plus utilisés pour la production de vins au Québec[4],[2], il est également utilisé dans les États de New York, du Connecticut et du Midwest américain[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un des cépages les plus utilisés pour la production de vins au Québec il est également utilisé dans les États de New York, du Connecticut et du Midwest américain.
 </t>
         </is>
       </c>
